--- a/GPS spillere.xlsx
+++ b/GPS spillere.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Desktop\Data app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAEF87-7307-4B41-806B-E9F181DB72E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426DFDE-1CB1-40A3-BE2B-032BB64D45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/GPS spillere.xlsx
+++ b/GPS spillere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426DFDE-1CB1-40A3-BE2B-032BB64D45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C785F16-A5DE-42B8-B5C7-7715F8133A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,13 +101,13 @@
     <t>15 Albrecht</t>
   </si>
   <si>
-    <t>4 Larsen</t>
-  </si>
-  <si>
     <t>Player Name</t>
   </si>
   <si>
     <t>16 N. Larsen</t>
+  </si>
+  <si>
+    <t>4 Roslyng</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
